--- a/编码进度表——陈绍基组.xlsx
+++ b/编码进度表——陈绍基组.xlsx
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -165,6 +165,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -172,6 +180,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -179,8 +240,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,87 +291,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -285,70 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -357,6 +342,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
@@ -364,7 +356,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -376,13 +383,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -434,61 +434,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,151 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,6 +767,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -778,15 +820,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,26 +850,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,41 +872,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,7 +895,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="49"/>
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,7 +919,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,196 +976,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,7 +1186,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="42" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2030,7 +2030,7 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/编码进度表——陈绍基组.xlsx
+++ b/编码进度表——陈绍基组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="38">
   <si>
     <t>进度控制表-文件共享系统的设计与实现</t>
   </si>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/7/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/7/</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1095,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1143,8 +1159,12 @@
       <c r="C3" s="6">
         <v>43661</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6">
+        <v>43660</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43661</v>
+      </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
@@ -1163,8 +1183,12 @@
       <c r="C4" s="6">
         <v>43661</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6">
+        <v>43660</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43661</v>
+      </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
@@ -1181,8 +1205,12 @@
       <c r="C5" s="6">
         <v>43662</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43662</v>
+      </c>
       <c r="F5" s="7">
         <v>0.9</v>
       </c>
@@ -1199,8 +1227,12 @@
       <c r="C6" s="6">
         <v>43662</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43662</v>
+      </c>
       <c r="F6" s="7">
         <v>0.9</v>
       </c>
@@ -1217,8 +1249,12 @@
       <c r="C7" s="6">
         <v>43663</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6">
+        <v>43662</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43663</v>
+      </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
@@ -1235,8 +1271,12 @@
       <c r="C8" s="6">
         <v>43663</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43663</v>
+      </c>
       <c r="F8" s="7">
         <v>0.9</v>
       </c>
@@ -1253,13 +1293,17 @@
       <c r="C9" s="6">
         <v>43664</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6">
+        <v>43664</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43664</v>
+      </c>
       <c r="F9" s="7">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -1363,13 +1407,17 @@
       <c r="C15" s="6">
         <v>43661</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6">
+        <v>43660</v>
+      </c>
+      <c r="E15" s="6">
+        <v>43661</v>
+      </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -1381,13 +1429,17 @@
       <c r="C16" s="6">
         <v>43667</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6">
+        <v>43660</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43661</v>
+      </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H16" s="9"/>
     </row>

--- a/编码进度表——陈绍基组.xlsx
+++ b/编码进度表——陈绍基组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="39">
   <si>
     <t>进度控制表-文件共享系统的设计与实现</t>
   </si>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>2019/7/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1094,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1317,13 +1321,17 @@
       <c r="C10" s="6">
         <v>43664</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6">
+        <v>43665</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43665</v>
+      </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -1335,13 +1343,17 @@
       <c r="C11" s="6">
         <v>43665</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6">
+        <v>43665</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43665</v>
+      </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -2602,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2970,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/编码进度表——陈绍基组.xlsx
+++ b/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8415" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="陈绍基" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="38">
   <si>
     <t>进度控制表-文件共享系统的设计与实现</t>
   </si>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>注意身份判断</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生管理（宿管）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生缺寝记录</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生缺寝记录（宿管）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1067,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1212,91 +1236,87 @@
         <v>0.9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
-        <v>43663</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43662</v>
-      </c>
+        <v>43667</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6">
-        <v>43663</v>
+        <v>43667</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>43663</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
+      <c r="D8" s="6">
+        <v>43662</v>
       </c>
       <c r="E8" s="6">
         <v>43663</v>
       </c>
       <c r="F8" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43663</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43663</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43664</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43664</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43664</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>43664</v>
       </c>
       <c r="D10" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="E10" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -1307,12 +1327,14 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="D11" s="6">
         <v>43665</v>
@@ -1329,32 +1351,34 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>43665</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>43665</v>
+      </c>
       <c r="E12" s="6">
-        <v>43667</v>
+        <v>43665</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
@@ -1369,62 +1393,60 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
-        <v>43666</v>
-      </c>
-      <c r="D14" s="6">
-        <v>43665</v>
-      </c>
+        <v>43667</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6">
-        <v>43665</v>
+        <v>43667</v>
       </c>
       <c r="F14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
-        <v>43661</v>
+        <v>43666</v>
       </c>
       <c r="D15" s="6">
-        <v>43660</v>
+        <v>43667</v>
       </c>
       <c r="E15" s="6">
-        <v>43661</v>
+        <v>43667</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="D16" s="6">
-        <v>43660</v>
+        <v>43665</v>
       </c>
       <c r="E16" s="6">
-        <v>43661</v>
+        <v>43665</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -1435,42 +1457,86 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43661</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43660</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43661</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43667</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43660</v>
+      </c>
+      <c r="E18" s="6">
+        <v>43661</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="6">
         <v>43668</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <v>43668</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1487,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1639,29 +1705,25 @@
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
-        <v>43663</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43663</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43663</v>
-      </c>
+        <v>43667</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>43663</v>
@@ -1673,49 +1735,51 @@
         <v>43663</v>
       </c>
       <c r="F8" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43663</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43663</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43664</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43664</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43664</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>43664</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6">
+        <v>43664</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43664</v>
+      </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>16</v>
@@ -1723,12 +1787,14 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1741,9 +1807,9 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>43665</v>
@@ -1759,12 +1825,12 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1777,12 +1843,12 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1790,91 +1856,127 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
-        <v>43661</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43661</v>
-      </c>
-      <c r="E15" s="6">
-        <v>43661</v>
-      </c>
+        <v>43666</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43666</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43661</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43661</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43661</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C18" s="6">
         <v>43667</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D18" s="6">
         <v>43661</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E18" s="6">
         <v>43661</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="6">
         <v>43668</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <v>43668</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1891,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2027,25 +2129,25 @@
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
-        <v>43663</v>
+        <v>43667</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>43663</v>
@@ -2063,15 +2165,15 @@
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>16</v>
@@ -2079,11 +2181,9 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>43664</v>
@@ -2099,12 +2199,14 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2117,9 +2219,9 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>43665</v>
@@ -2135,12 +2237,12 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2153,12 +2255,12 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2166,17 +2268,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
-        <v>43661</v>
+        <v>43666</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2191,10 +2293,10 @@
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2207,12 +2309,12 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
-        <v>43668</v>
+        <v>43661</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2225,14 +2327,12 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2242,7 +2342,45 @@
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2259,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2395,25 +2533,25 @@
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
-        <v>43663</v>
+        <v>43667</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>43663</v>
@@ -2431,15 +2569,15 @@
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>16</v>
@@ -2447,11 +2585,9 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>43664</v>
@@ -2467,12 +2603,14 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2485,9 +2623,9 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>43665</v>
@@ -2503,12 +2641,12 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2521,12 +2659,12 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2534,17 +2672,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
-        <v>43661</v>
+        <v>43666</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2559,10 +2697,10 @@
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2575,12 +2713,12 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
-        <v>43668</v>
+        <v>43661</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2593,14 +2731,12 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2610,7 +2746,45 @@
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2627,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2763,10 +2937,10 @@
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
-        <v>43663</v>
+        <v>43667</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2774,14 +2948,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>43663</v>
@@ -2799,10 +2973,10 @@
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2810,16 +2984,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>43664</v>
@@ -2835,12 +3007,14 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2853,9 +3027,9 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>43665</v>
@@ -2871,12 +3045,12 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2889,12 +3063,12 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2902,17 +3076,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
-        <v>43661</v>
+        <v>43666</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2920,17 +3094,17 @@
         <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2938,17 +3112,17 @@
         <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
-        <v>43668</v>
+        <v>43661</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2956,19 +3130,17 @@
         <v>0</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2976,9 +3148,47 @@
         <v>0</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2995,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3131,10 +3341,10 @@
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
-        <v>43663</v>
+        <v>43667</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3142,14 +3352,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>43663</v>
@@ -3167,10 +3377,10 @@
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3183,11 +3393,9 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>43664</v>
@@ -3203,12 +3411,14 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3221,9 +3431,9 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>43665</v>
@@ -3239,12 +3449,12 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3257,12 +3467,12 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3270,17 +3480,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
-        <v>43661</v>
+        <v>43666</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -3295,10 +3505,10 @@
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -3311,12 +3521,12 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
-        <v>43668</v>
+        <v>43661</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -3329,14 +3539,12 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -3346,7 +3554,45 @@
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
     </row>

--- a/编码进度表——陈绍基组.xlsx
+++ b/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="陈绍基" sheetId="8" r:id="rId1"/>
@@ -131,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -185,6 +185,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,14 +230,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +257,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,7 +275,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,96 +348,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="13"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -339,7 +369,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -352,55 +394,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -412,8 +412,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -424,14 +430,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,7 +452,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +488,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,169 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,37 +596,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +650,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,12 +779,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -844,17 +848,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,7 +872,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,6 +892,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -894,6 +932,24 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,77 +970,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -998,15 +983,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1018,214 +994,214 @@
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,15 +1301,15 @@
     <cellStyle name="汇总" xfId="38" builtinId="25"/>
     <cellStyle name="40% - 着色 5" xfId="39"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="着色 5" xfId="41"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="42"/>
     <cellStyle name="标题 1 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="49"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
@@ -1343,8 +1319,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="标题 2 2" xfId="62"/>
     <cellStyle name="标题 3 2" xfId="63"/>
@@ -2160,8 +2136,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2315,15 +2291,17 @@
       <c r="C7" s="9">
         <v>43667</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>43668</v>
+      </c>
       <c r="E7" s="9">
         <v>43667</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="12"/>
     </row>
@@ -2442,20 +2420,22 @@
     <row r="13" ht="18.75" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9">
         <v>43665</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>43668</v>
+      </c>
       <c r="E13" s="9">
         <v>43667</v>
       </c>
       <c r="F13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2467,12 +2447,14 @@
       <c r="C14" s="9">
         <v>43667</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>43668</v>
+      </c>
       <c r="E14" s="9">
         <v>43667</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>16</v>
@@ -2487,15 +2469,17 @@
       <c r="C15" s="9">
         <v>43666</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>43668</v>
+      </c>
       <c r="E15" s="9">
         <v>43667</v>
       </c>
       <c r="F15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -2620,7 +2604,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
@@ -3832,7 +3816,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
